--- a/EkoPop Herbivori-9uppg.xlsx
+++ b/EkoPop Herbivori-9uppg.xlsx
@@ -5,23 +5,24 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3bfa42e0fcc4080e/Dokument/Jobb/Undervisning/EkoPop/VT24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\R Projects\KvantBio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC17A3C3-D0E3-4F4D-82CB-8ED4CE9E5968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F12CC1-1F39-4206-A277-54AAD69BB073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5520" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uppg1" sheetId="1" r:id="rId1"/>
     <sheet name="uppg2" sheetId="5" r:id="rId2"/>
     <sheet name="uppg3" sheetId="13" r:id="rId3"/>
-    <sheet name="uppg4" sheetId="8" r:id="rId4"/>
-    <sheet name="uppg5" sheetId="7" r:id="rId5"/>
-    <sheet name="uppg6" sheetId="6" r:id="rId6"/>
-    <sheet name="uppg7" sheetId="12" r:id="rId7"/>
-    <sheet name="uppg8" sheetId="4" r:id="rId8"/>
-    <sheet name="uppg9" sheetId="2" r:id="rId9"/>
+    <sheet name="uppg3.2" sheetId="14" r:id="rId4"/>
+    <sheet name="uppg4" sheetId="8" r:id="rId5"/>
+    <sheet name="uppg5" sheetId="7" r:id="rId6"/>
+    <sheet name="uppg6" sheetId="6" r:id="rId7"/>
+    <sheet name="uppg7" sheetId="12" r:id="rId8"/>
+    <sheet name="uppg8" sheetId="4" r:id="rId9"/>
+    <sheet name="uppg9" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
   <si>
     <t>Tall</t>
   </si>
@@ -240,6 +241,9 @@
   </si>
   <si>
     <t>Svart Bigarro</t>
+  </si>
+  <si>
+    <t>blad_g</t>
   </si>
 </sst>
 </file>
@@ -629,9 +633,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -651,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -671,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -691,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -722,6 +726,483 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D31"/>
@@ -730,13 +1211,13 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.23046875" customWidth="1"/>
-    <col min="3" max="4" width="14.765625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="4" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -750,7 +1231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -764,7 +1245,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -778,7 +1259,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -792,7 +1273,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -806,7 +1287,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -820,7 +1301,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -834,7 +1315,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -848,7 +1329,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -862,7 +1343,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -876,7 +1357,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -890,7 +1371,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -904,7 +1385,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -918,7 +1399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -932,7 +1413,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -946,7 +1427,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -960,7 +1441,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -974,7 +1455,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -988,7 +1469,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1002,7 +1483,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1016,7 +1497,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1030,7 +1511,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1044,7 +1525,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1058,7 +1539,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1072,7 +1553,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1086,7 +1567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1100,7 +1581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1114,7 +1595,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1128,7 +1609,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1142,7 +1623,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1156,7 +1637,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1180,15 +1661,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="19.3828125" customWidth="1"/>
+    <col min="1" max="5" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1202,7 +1683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>207</v>
       </c>
@@ -1216,7 +1697,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>189</v>
       </c>
@@ -1230,7 +1711,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>178</v>
       </c>
@@ -1244,7 +1725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>234</v>
       </c>
@@ -1258,7 +1739,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>209</v>
       </c>
@@ -1272,7 +1753,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>219</v>
       </c>
@@ -1292,17 +1773,307 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDAFB02-7520-4B44-B3A0-68807CB4F4BA}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>228</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1310,7 +2081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1318,7 +2089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1326,7 +2097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1334,7 +2105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1342,7 +2113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1350,7 +2121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1358,7 +2129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1366,7 +2137,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1374,7 +2145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1382,7 +2153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1390,7 +2161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1398,7 +2169,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1406,7 +2177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1414,7 +2185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1422,7 +2193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1430,7 +2201,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1438,7 +2209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1446,7 +2217,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1454,7 +2225,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1462,7 +2233,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1475,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1483,13 +2254,13 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.23046875" customWidth="1"/>
-    <col min="3" max="3" width="16.765625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +2271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1511,7 +2282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1522,7 +2293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1533,7 +2304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1544,7 +2315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1555,7 +2326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1566,7 +2337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1577,7 +2348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1588,7 +2359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1599,7 +2370,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1610,7 +2381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1621,7 +2392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1632,7 +2403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1643,7 +2414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1654,7 +2425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1665,7 +2436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1676,7 +2447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1687,7 +2458,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1698,7 +2469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1709,7 +2480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1725,7 +2496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1733,15 +2504,15 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.3828125" customWidth="1"/>
-    <col min="2" max="2" width="22.61328125" customWidth="1"/>
-    <col min="3" max="3" width="16.61328125" customWidth="1"/>
-    <col min="4" max="4" width="22.61328125" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1755,7 +2526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1769,7 +2540,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1783,7 +2554,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1797,7 +2568,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1811,7 +2582,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1825,7 +2596,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1839,7 +2610,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +2624,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1867,7 +2638,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1881,7 +2652,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1900,7 +2671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
@@ -1908,12 +2679,12 @@
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1921,7 +2692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1929,7 +2700,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1937,7 +2708,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1945,7 +2716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1953,7 +2724,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1961,7 +2732,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1969,7 +2740,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1977,7 +2748,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1985,7 +2756,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1993,7 +2764,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -2001,7 +2772,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2009,7 +2780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2017,7 +2788,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2025,7 +2796,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -2033,7 +2804,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2041,7 +2812,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2049,7 +2820,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2057,7 +2828,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2065,7 +2836,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2073,7 +2844,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2081,7 +2852,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -2089,7 +2860,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -2097,7 +2868,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -2105,7 +2876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2113,7 +2884,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2121,7 +2892,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2129,7 +2900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2137,7 +2908,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2145,7 +2916,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -2153,7 +2924,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -2161,7 +2932,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -2169,7 +2940,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -2177,7 +2948,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -2185,7 +2956,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -2193,7 +2964,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>25</v>
       </c>
@@ -2201,7 +2972,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>25</v>
       </c>
@@ -2209,7 +2980,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>25</v>
       </c>
@@ -2217,7 +2988,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>25</v>
       </c>
@@ -2225,7 +2996,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>25</v>
       </c>
@@ -2233,7 +3004,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>25</v>
       </c>
@@ -2241,7 +3012,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>50</v>
       </c>
@@ -2249,7 +3020,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -2257,7 +3028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>50</v>
       </c>
@@ -2265,7 +3036,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>50</v>
       </c>
@@ -2273,7 +3044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>50</v>
       </c>
@@ -2281,7 +3052,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>50</v>
       </c>
@@ -2289,7 +3060,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>50</v>
       </c>
@@ -2297,7 +3068,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -2305,7 +3076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2313,7 +3084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2321,7 +3092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2329,7 +3100,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -2337,7 +3108,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -2345,7 +3116,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>50</v>
       </c>
@@ -2353,7 +3124,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -2361,7 +3132,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>50</v>
       </c>
@@ -2369,7 +3140,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>50</v>
       </c>
@@ -2377,7 +3148,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>50</v>
       </c>
@@ -2385,7 +3156,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>50</v>
       </c>
@@ -2393,7 +3164,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>50</v>
       </c>
@@ -2401,7 +3172,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>100</v>
       </c>
@@ -2409,7 +3180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>100</v>
       </c>
@@ -2417,7 +3188,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>100</v>
       </c>
@@ -2425,7 +3196,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>100</v>
       </c>
@@ -2433,7 +3204,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>100</v>
       </c>
@@ -2441,7 +3212,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>100</v>
       </c>
@@ -2449,7 +3220,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>100</v>
       </c>
@@ -2457,7 +3228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>100</v>
       </c>
@@ -2465,7 +3236,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>100</v>
       </c>
@@ -2473,7 +3244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>100</v>
       </c>
@@ -2481,7 +3252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>100</v>
       </c>
@@ -2489,7 +3260,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -2497,7 +3268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>100</v>
       </c>
@@ -2505,7 +3276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>100</v>
       </c>
@@ -2513,7 +3284,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>100</v>
       </c>
@@ -2521,7 +3292,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>100</v>
       </c>
@@ -2529,7 +3300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>100</v>
       </c>
@@ -2537,7 +3308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>100</v>
       </c>
@@ -2545,7 +3316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>100</v>
       </c>
@@ -2553,7 +3324,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>100</v>
       </c>
@@ -2566,7 +3337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -2574,12 +3345,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -2593,7 +3364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2607,7 +3378,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2621,7 +3392,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2635,7 +3406,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2649,7 +3420,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2663,7 +3434,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2677,7 +3448,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2691,7 +3462,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2705,7 +3476,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2719,7 +3490,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2733,7 +3504,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2747,7 +3518,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2761,7 +3532,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -2775,7 +3546,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2789,7 +3560,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2801,483 +3572,6 @@
       </c>
       <c r="D16">
         <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/EkoPop Herbivori-9uppg.xlsx
+++ b/EkoPop Herbivori-9uppg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\R Projects\KvantBio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\KvantBio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F12CC1-1F39-4206-A277-54AAD69BB073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15986D88-C398-4867-8ACD-B87A757EA2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="-120" windowWidth="27780" windowHeight="16440" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uppg1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="uppg4" sheetId="8" r:id="rId5"/>
     <sheet name="uppg5" sheetId="7" r:id="rId6"/>
     <sheet name="uppg6" sheetId="6" r:id="rId7"/>
-    <sheet name="uppg7" sheetId="12" r:id="rId8"/>
-    <sheet name="uppg8" sheetId="4" r:id="rId9"/>
-    <sheet name="uppg9" sheetId="2" r:id="rId10"/>
+    <sheet name="uppg6.2" sheetId="15" r:id="rId8"/>
+    <sheet name="uppg7" sheetId="12" r:id="rId9"/>
+    <sheet name="uppg8" sheetId="4" r:id="rId10"/>
+    <sheet name="uppg9" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="83">
   <si>
     <t>Tall</t>
   </si>
@@ -244,6 +245,45 @@
   </si>
   <si>
     <t>blad_g</t>
+  </si>
+  <si>
+    <t>tanninkonc_mg/g</t>
+  </si>
+  <si>
+    <t>Referens</t>
+  </si>
+  <si>
+    <t>par_id</t>
+  </si>
+  <si>
+    <t>par1</t>
+  </si>
+  <si>
+    <t>par2</t>
+  </si>
+  <si>
+    <t>par3</t>
+  </si>
+  <si>
+    <t>par4</t>
+  </si>
+  <si>
+    <t>par5</t>
+  </si>
+  <si>
+    <t>par6</t>
+  </si>
+  <si>
+    <t>par7</t>
+  </si>
+  <si>
+    <t>par8</t>
+  </si>
+  <si>
+    <t>par9</t>
+  </si>
+  <si>
+    <t>par10</t>
   </si>
 </sst>
 </file>
@@ -258,6 +298,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -286,9 +327,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +675,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -727,6 +769,248 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>108</v>
+      </c>
+      <c r="D2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>149</v>
+      </c>
+      <c r="D6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>144</v>
+      </c>
+      <c r="D7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>203</v>
+      </c>
+      <c r="D8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>201</v>
+      </c>
+      <c r="D10">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>306</v>
+      </c>
+      <c r="D12">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>303</v>
+      </c>
+      <c r="D13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>320</v>
+      </c>
+      <c r="D14">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>334</v>
+      </c>
+      <c r="D15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>318</v>
+      </c>
+      <c r="D16">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -734,7 +1018,7 @@
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1211,10 +1495,10 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="4" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="4" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1664,9 +1948,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="19.36328125" customWidth="1"/>
+    <col min="1" max="5" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1776,11 +2060,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDAFB02-7520-4B44-B3A0-68807CB4F4BA}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2068,7 +2352,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
@@ -2254,10 +2538,10 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2501,15 +2785,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2672,6 +2956,322 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE24C345-42D4-487B-A788-4833531074CD}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
@@ -2679,7 +3279,7 @@
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
@@ -3335,246 +3935,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>108</v>
-      </c>
-      <c r="D2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>106</v>
-      </c>
-      <c r="D3">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>105</v>
-      </c>
-      <c r="D4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>151</v>
-      </c>
-      <c r="D5">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>149</v>
-      </c>
-      <c r="D6">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>144</v>
-      </c>
-      <c r="D7">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>203</v>
-      </c>
-      <c r="D8">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>201</v>
-      </c>
-      <c r="D10">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>300</v>
-      </c>
-      <c r="D11">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>306</v>
-      </c>
-      <c r="D12">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>303</v>
-      </c>
-      <c r="D13">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>320</v>
-      </c>
-      <c r="D14">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>334</v>
-      </c>
-      <c r="D15">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>318</v>
-      </c>
-      <c r="D16">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>